--- a/session 7/Homework/topItunesong.xlsx
+++ b/session 7/Homework/topItunesong.xlsx
@@ -19,489 +19,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="161">
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/justin-timberlake/398128?uo=4&amp;l=en</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="178">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>artists</t>
+  </si>
+  <si>
+    <t>The Champion (feat. Ludacris)</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Say Something (feat. Chris Stapleton)</t>
   </si>
   <si>
     <t>Justin Timberlake</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/jason-aldean/63684710?uo=4&amp;l=en</t>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>CAN'T STOP THE FEELING!</t>
+  </si>
+  <si>
+    <t>Meant to Be (feat. Florida Georgia Line)</t>
+  </si>
+  <si>
+    <t>Bebe Rexha</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Finesse (Remix) [feat. Cardi B]</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Havana (feat. Young Thug)</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>You Make It Easy</t>
   </si>
   <si>
     <t>Jason Aldean</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/zedd/368433979?uo=4&amp;l=en</t>
+    <t>Man of the Woods</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>This Is Me</t>
+  </si>
+  <si>
+    <t>Keala Settle &amp; The Greatest Showman Ensemble</t>
+  </si>
+  <si>
+    <t>The Middle</t>
   </si>
   <si>
     <t>Zedd, Maren Morris &amp; Grey</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/ed-sheeran/183313439?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/bruno-mars/278873078?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/bebe-rexha/466059563?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Bebe Rexha</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/why-dont-we/1161814111?uo=4&amp;l=en</t>
+    <t>Mirrors</t>
+  </si>
+  <si>
+    <t>Let You Down</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Savior (feat. Quavo)</t>
+  </si>
+  <si>
+    <t>Iggy Azalea</t>
+  </si>
+  <si>
+    <t>Rock Your Body</t>
+  </si>
+  <si>
+    <t>Marry Me</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Praying</t>
+  </si>
+  <si>
+    <t>Kesha</t>
+  </si>
+  <si>
+    <t>Never Be the Same</t>
+  </si>
+  <si>
+    <t>Broken Halos</t>
+  </si>
+  <si>
+    <t>Chris Stapleton</t>
+  </si>
+  <si>
+    <t>Bad at Love</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>How Long</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Whatever It Takes</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>New Rules</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Kane Brown</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Selena Gomez &amp; Marshmello</t>
+  </si>
+  <si>
+    <t>Cry Me a River</t>
+  </si>
+  <si>
+    <t>God's Plan</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Most People Are Good</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Let Me Go (feat. Florida Georgia Line &amp; watt)</t>
+  </si>
+  <si>
+    <t>Hailee Steinfeld &amp; Alesso</t>
+  </si>
+  <si>
+    <t>Morning Light (feat. Alicia Keys)</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
+    <t>End Game (feat. Ed Sheeran &amp; Future)</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Five More Minutes</t>
+  </si>
+  <si>
+    <t>Scotty McCreery</t>
+  </si>
+  <si>
+    <t>You Broke Up with Me</t>
+  </si>
+  <si>
+    <t>Walker Hayes</t>
+  </si>
+  <si>
+    <t>Young Dumb &amp; Broke</t>
+  </si>
+  <si>
+    <t>Khalid</t>
+  </si>
+  <si>
+    <t>Despacito (feat. Justin Bieber) [Remix]</t>
+  </si>
+  <si>
+    <t>Luis Fonsi &amp; Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Tennessee Whiskey</t>
+  </si>
+  <si>
+    <t>Lights Down Low (feat. gnash)</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Written in the Sand</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>One Foot</t>
+  </si>
+  <si>
+    <t>WALK THE MOON</t>
+  </si>
+  <si>
+    <t>Rewrite the Stars</t>
+  </si>
+  <si>
+    <t>Zac Efron &amp; Zendaya</t>
+  </si>
+  <si>
+    <t>Trust Fund Baby</t>
   </si>
   <si>
     <t>Why Don't We</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/camila-cabello/935727853?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Camila Cabello</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/imagine-dragons/358714030?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/kesha/334854763?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Kesha</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/nf/898094630?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/thomas-rhett/502541718?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/carrie-underwood/63399334?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/chris-stapleton/1752134?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Chris Stapleton</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/halsey/324916925?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Halsey</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/maroon-5/1798556?uo=4&amp;l=en</t>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>The Greatest Show</t>
+  </si>
+  <si>
+    <t>Hugh Jackman, Keala Settle, Zac Efron, Zendaya &amp; The Greatest Showman Ensemble</t>
+  </si>
+  <si>
+    <t>Shape of You</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
   <si>
     <t>Maroon 5</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/kane-brown/930928857?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Kane Brown</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/charlie-puth/336249253?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/luke-bryan/20131064?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/portugal-the-man/167649475?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Portugal. The Man</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/drake/271256?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/sia/13493906?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Sia, David Guetta &amp; Afrojack</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/liam-payne/366710817?uo=4&amp;l=en</t>
+    <t>Never Enough</t>
+  </si>
+  <si>
+    <t>Loren Allred</t>
+  </si>
+  <si>
+    <t>24K Magic</t>
+  </si>
+  <si>
+    <t>Tell Me You Love Me</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Too Good at Goodbyes</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Never Tear Us Apart</t>
+  </si>
+  <si>
+    <t>Bishop Briggs</t>
+  </si>
+  <si>
+    <t>My Love (feat. T.I.)</t>
+  </si>
+  <si>
+    <t>Perfect Symphony</t>
+  </si>
+  <si>
+    <t>Ed Sheeran &amp; Andrea Bocelli</t>
+  </si>
+  <si>
+    <t>All On Me</t>
+  </si>
+  <si>
+    <t>Devin Dawson</t>
+  </si>
+  <si>
+    <t>What About Us</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Perfect Duet (with Beyoncé)</t>
+  </si>
+  <si>
+    <t>For You (Fifty Shades Freed)</t>
   </si>
   <si>
     <t>Liam Payne &amp; Rita Ora</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/keala-settle/268060762?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Keala Settle &amp; The Greatest Showman Ensemble</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/selena-gomez/280215834?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Selena Gomez &amp; Marshmello</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/taylor-swift/159260351?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/luis-fonsi/102834?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Luis Fonsi &amp; Daddy Yankee</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/dua-lipa/1031397873?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/scotty-mccreery/425025684?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Scotty McCreery</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/walker-hayes/382876655?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Walker Hayes</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/hailee-steinfeld/417571723?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Hailee Steinfeld &amp; Alesso</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/demi-lovato/280215821?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/walk-the-moon/451783136?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>WALK THE MOON</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/khalid/82842423?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Khalid</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/sting/94804?uo=4&amp;l=en</t>
+    <t>rockstar (feat. 21 Savage)</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Good Old Days (feat. Kesha)</t>
+  </si>
+  <si>
+    <t>Macklemore</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Lee Brice</t>
+  </si>
+  <si>
+    <t>Until the End of Time (feat. Beyonce)</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Greatest Love Story</t>
+  </si>
+  <si>
+    <t>LANCO</t>
+  </si>
+  <si>
+    <t>Yours</t>
+  </si>
+  <si>
+    <t>Russell Dickerson</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Bad Wolves</t>
+  </si>
+  <si>
+    <t>What Lovers Do (feat. SZA)</t>
+  </si>
+  <si>
+    <t>One Number Away</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>No Roots</t>
+  </si>
+  <si>
+    <t>Alice Merton</t>
+  </si>
+  <si>
+    <t>That’s What I Like</t>
+  </si>
+  <si>
+    <t>Azukita</t>
+  </si>
+  <si>
+    <t>Steve Aoki, Daddy Yankee, Play-N-Skillz &amp; Elvis Crespo</t>
+  </si>
+  <si>
+    <t>What Goes Around.../...Comes Around (Interlude)</t>
+  </si>
+  <si>
+    <t>What Ifs (feat. Lauren Alaina)</t>
+  </si>
+  <si>
+    <t>Dura</t>
+  </si>
+  <si>
+    <t>Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Up Down (feat. Florida Georgia Line)</t>
+  </si>
+  <si>
+    <t>Morgan Wallen</t>
+  </si>
+  <si>
+    <t>Don't Make Me Wait</t>
   </si>
   <si>
     <t>Sting &amp; Shaggy</t>
   </si>
   <si>
-    <t>https://itunes.apple.com/us/artist/ozuna/283578837?uo=4&amp;l=en</t>
+    <t>A Million Dreams</t>
+  </si>
+  <si>
+    <t>Ziv Zaifman, Hugh Jackman &amp; Michelle Williams</t>
+  </si>
+  <si>
+    <t>Stand By Me</t>
+  </si>
+  <si>
+    <t>Skylar Grey</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Keith Urban</t>
+  </si>
+  <si>
+    <t>Despacito (feat. Daddy Yankee)</t>
+  </si>
+  <si>
+    <t>Luis Fonsi</t>
+  </si>
+  <si>
+    <t>Body Like a Back Road</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Something Just Like This</t>
+  </si>
+  <si>
+    <t>The Chainsmokers &amp; Coldplay</t>
+  </si>
+  <si>
+    <t>Don't Stay</t>
+  </si>
+  <si>
+    <t>X Ambassadors</t>
+  </si>
+  <si>
+    <t>Girl On Fire</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>I just need U.</t>
+  </si>
+  <si>
+    <t>TobyMac</t>
+  </si>
+  <si>
+    <t>Everything's Gonna Be Alright</t>
+  </si>
+  <si>
+    <t>David Lee Murphy &amp; Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Dan + Shay</t>
+  </si>
+  <si>
+    <t>The Rest of Our Life</t>
+  </si>
+  <si>
+    <t>Tim McGraw &amp; Faith Hill</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>Kelsea Ballerini</t>
+  </si>
+  <si>
+    <t>Silence (feat. Khalid)</t>
+  </si>
+  <si>
+    <t>Marshmello</t>
+  </si>
+  <si>
+    <t>Thinking Out Loud</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Glorious (feat. Skylar Grey)</t>
+  </si>
+  <si>
+    <t>Like I Loved You</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
+  </si>
+  <si>
+    <t>Love So Soft</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Uptown Funk (feat. Bruno Mars)</t>
+  </si>
+  <si>
+    <t>Mark Ronson</t>
+  </si>
+  <si>
+    <t>I Would Die 4 U</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>El Farsante (Remix)</t>
   </si>
   <si>
     <t>Ozuna &amp; Romeo Santos</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/old-dominion/495761008?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/luke-combs/815635315?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
-  </si>
-  <si>
-    <t>Ed Sheeran &amp; Andrea Bocelli</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/max/838142640?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/thirty-seconds-to-mars/2307416?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Thirty Seconds to Mars</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/sam-smith/156488786?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/breaking-benjamin/3299379?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/devin-dawson/965280208?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Devin Dawson</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/lanco/1023958275?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>LANCO</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/macklemore/283347662?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Macklemore</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/russell-dickerson/415673786?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Russell Dickerson</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/keith-urban/549836?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Keith Urban</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/bad-wolves/1005229146?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Bad Wolves</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/alice-merton/658208216?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Alice Merton</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/post-malone/966309175?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/little-big-town/513770?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Little Big Town</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/lee-brice/216359623?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Lee Brice</t>
-  </si>
-  <si>
-    <t>Luis Fonsi</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/dan-shay/690319057?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Dan + Shay</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/daddy-yankee/25514958?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Daddy Yankee</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/p-nk/4488522?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/zac-efron/253406605?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Zac Efron &amp; Zendaya</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/hugh-jackman/3677919?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Hugh Jackman, Keala Settle, Zac Efron, Zendaya &amp; The Greatest Showman Ensemble</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/loren-allred/560195338?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Loren Allred</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/morgan-wallen/829142092?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Morgan Wallen</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/julia-michaels/378430797?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Julia Michaels</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/jordan-davis/1240921740?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Jordan Davis</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/brett-young/1084576956?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Brett Young</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/tobymac/635550?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>TobyMac</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/the-chainsmokers/580391756?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>The Chainsmokers &amp; Coldplay</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/tim-mcgraw/3496236?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Tim McGraw &amp; Faith Hill</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/david-lee-murphy/181651?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>David Lee Murphy &amp; Kenny Chesney</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/marshmello/980795202?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Marshmello</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/kelsea-ballerini/382270241?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Kelsea Ballerini</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/dnce/1040595108?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>DNCE</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/lady-gaga/277293880?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/kelly-clarkson/316265?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/red-velvet/906961899?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Red Velvet</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/ziv-zaifman/1299844948?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Ziv Zaifman, Hugh Jackman &amp; Michelle Williams</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/disturbed/156807?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/iggy-azalea/503970811?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Iggy Azalea</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/sam-hunt/214150835?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Sam Hunt</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/dierks-bentley/3088872?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Dierks Bentley</t>
-  </si>
-  <si>
-    <t>Luis Fonsi &amp; Demi Lovato</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/us/artist/mark-ronson/1806833?uo=4&amp;l=en</t>
-  </si>
-  <si>
-    <t>Mark Ronson</t>
   </si>
 </sst>
 </file>
@@ -843,13 +894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -881,95 +932,95 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -993,159 +1044,159 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,502 +1217,501 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>